--- a/results/logistic/dilemma/confidence/desired/sum_scores.xlsx
+++ b/results/logistic/dilemma/confidence/desired/sum_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="160">
   <si>
     <t>negative</t>
   </si>
@@ -46,12 +46,12 @@
     <t>scary</t>
   </si>
   <si>
+    <t>fake</t>
+  </si>
+  <si>
     <t>terrifying</t>
   </si>
   <si>
-    <t>fake</t>
-  </si>
-  <si>
     <t>other</t>
   </si>
   <si>
@@ -73,448 +73,424 @@
     <t>seriously</t>
   </si>
   <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>serious</t>
+  </si>
+  <si>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>fucked</t>
+  </si>
+  <si>
+    <t>few</t>
+  </si>
+  <si>
+    <t>mit</t>
+  </si>
+  <si>
+    <t>disturbing</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>sad</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>holy</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
     <t>long</t>
   </si>
   <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>serious</t>
-  </si>
-  <si>
-    <t>behind</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>fucked</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>mean</t>
-  </si>
-  <si>
-    <t>disturbing</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>sad</t>
-  </si>
-  <si>
-    <t>evil</t>
-  </si>
-  <si>
-    <t>dark</t>
-  </si>
-  <si>
-    <t>holy</t>
-  </si>
-  <si>
-    <t>mit</t>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>guilty</t>
+  </si>
+  <si>
+    <t>destroying</t>
+  </si>
+  <si>
+    <t>frightening</t>
+  </si>
+  <si>
+    <t>insane</t>
+  </si>
+  <si>
+    <t>ho</t>
   </si>
   <si>
     <t>creepy</t>
   </si>
   <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>few</t>
-  </si>
-  <si>
-    <t>insane</t>
-  </si>
-  <si>
-    <t>destroying</t>
+    <t>boring</t>
+  </si>
+  <si>
+    <t>past</t>
   </si>
   <si>
     <t>shocking</t>
   </si>
   <si>
-    <t>boring</t>
+    <t>days</t>
+  </si>
+  <si>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>unfortunately</t>
+  </si>
+  <si>
+    <t>this</t>
+  </si>
+  <si>
+    <t>[UNK]</t>
+  </si>
+  <si>
+    <t>black</t>
   </si>
   <si>
     <t>not</t>
   </si>
   <si>
+    <t>half</t>
+  </si>
+  <si>
+    <t>finally</t>
+  </si>
+  <si>
+    <t>chilling</t>
+  </si>
+  <si>
+    <t>the</t>
+  </si>
+  <si>
+    <t>ya</t>
+  </si>
+  <si>
+    <t>we</t>
+  </si>
+  <si>
+    <t>know</t>
+  </si>
+  <si>
+    <t>it</t>
+  </si>
+  <si>
+    <t>’</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>my</t>
+  </si>
+  <si>
+    <t>fall</t>
+  </si>
+  <si>
+    <t>twitter</t>
+  </si>
+  <si>
+    <t>spreads</t>
+  </si>
+  <si>
+    <t>faster</t>
+  </si>
+  <si>
+    <t>study</t>
+  </si>
+  <si>
+    <t>but</t>
+  </si>
+  <si>
+    <t>any</t>
+  </si>
+  <si>
+    <t>some</t>
+  </si>
+  <si>
+    <t>'</t>
+  </si>
+  <si>
+    <t>drugs</t>
+  </si>
+  <si>
+    <t>customers</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
     <t>mad</t>
   </si>
   <si>
-    <t>black</t>
-  </si>
-  <si>
-    <t>unfortunately</t>
-  </si>
-  <si>
-    <t>it</t>
-  </si>
-  <si>
-    <t>faster</t>
-  </si>
-  <si>
-    <t>drugs</t>
-  </si>
-  <si>
-    <t>shocked</t>
-  </si>
-  <si>
-    <t>the</t>
-  </si>
-  <si>
-    <t>this</t>
-  </si>
-  <si>
-    <t>[UNK]</t>
-  </si>
-  <si>
-    <t>customers</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>soon</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>finally</t>
-  </si>
-  <si>
-    <t>weird</t>
-  </si>
-  <si>
-    <t>late</t>
-  </si>
-  <si>
-    <t>ya</t>
-  </si>
-  <si>
-    <t>we</t>
-  </si>
-  <si>
-    <t>know</t>
-  </si>
-  <si>
-    <t>’</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>my</t>
-  </si>
-  <si>
-    <t>fall</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>times</t>
-  </si>
-  <si>
-    <t>study</t>
-  </si>
-  <si>
-    <t>is</t>
-  </si>
-  <si>
-    <t>but</t>
-  </si>
-  <si>
-    <t>…</t>
-  </si>
-  <si>
-    <t>software</t>
-  </si>
-  <si>
-    <t>were</t>
-  </si>
-  <si>
-    <t>over</t>
-  </si>
-  <si>
-    <t>rabbit</t>
-  </si>
-  <si>
-    <t>:</t>
-  </si>
-  <si>
-    <t>your</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>pointless</t>
-  </si>
-  <si>
-    <t>drama</t>
+    <t>less</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>more</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>most</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>own</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>ironic</t>
+  </si>
+  <si>
+    <t>lo</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>brilliant</t>
+  </si>
+  <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>has</t>
+  </si>
+  <si>
+    <t>its</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>tool</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>honestly</t>
+  </si>
+  <si>
+    <t>waiting</t>
+  </si>
+  <si>
+    <t>be</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>isn</t>
+  </si>
+  <si>
+    <t>thing</t>
+  </si>
+  <si>
+    <t>fascinating</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>india</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>harm</t>
+  </si>
+  <si>
+    <t>excited</t>
+  </si>
+  <si>
+    <t>;</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>democracy</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>hear</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>business</t>
+  </si>
+  <si>
+    <t>ti</t>
+  </si>
+  <si>
+    <t>uses</t>
+  </si>
+  <si>
+    <t>design</t>
+  </si>
+  <si>
+    <t>gen</t>
   </si>
   <si>
     <t>just</t>
   </si>
   <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>with</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>two</t>
-  </si>
-  <si>
-    <t>dumb</t>
-  </si>
-  <si>
-    <t>at</t>
-  </si>
-  <si>
-    <t>bias</t>
-  </si>
-  <si>
-    <t>half</t>
-  </si>
-  <si>
-    <t>felt</t>
-  </si>
-  <si>
-    <t>active</t>
-  </si>
-  <si>
-    <t>app</t>
-  </si>
-  <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>more</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>most</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>own</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>ironic</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>lo</t>
-  </si>
-  <si>
-    <t>amazing</t>
+    <t>quick</t>
+  </si>
+  <si>
+    <t>films</t>
+  </si>
+  <si>
+    <t>watched</t>
+  </si>
+  <si>
+    <t>mani</t>
+  </si>
+  <si>
+    <t>discussion</t>
+  </si>
+  <si>
+    <t>technology</t>
+  </si>
+  <si>
+    <t>action</t>
   </si>
   <si>
     <t>highly</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>excellent</t>
-  </si>
-  <si>
     <t>okay</t>
   </si>
   <si>
-    <t>brilliant</t>
-  </si>
-  <si>
-    <t>exactly</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>honestly</t>
-  </si>
-  <si>
-    <t>available</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>yesterday</t>
+    <t>documentary</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>live</t>
   </si>
   <si>
     <t>ok</t>
   </si>
   <si>
-    <t>waiting</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>means</t>
-  </si>
-  <si>
-    <t>its</t>
-  </si>
-  <si>
-    <t>of</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>school</t>
-  </si>
-  <si>
-    <t>isn</t>
-  </si>
-  <si>
-    <t>fascinating</t>
-  </si>
-  <si>
-    <t>be</t>
-  </si>
-  <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>kind</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>pursuing</t>
-  </si>
-  <si>
-    <t>“</t>
-  </si>
-  <si>
-    <t>posting</t>
-  </si>
-  <si>
-    <t>!</t>
-  </si>
-  <si>
-    <t>watching</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>r</t>
-  </si>
-  <si>
-    <t>that</t>
-  </si>
-  <si>
-    <t>ti</t>
-  </si>
-  <si>
-    <t>design</t>
-  </si>
-  <si>
-    <t>has</t>
-  </si>
-  <si>
-    <t>very</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>;</t>
-  </si>
-  <si>
-    <t>opener</t>
-  </si>
-  <si>
-    <t>so</t>
-  </si>
-  <si>
-    <t>engineers</t>
-  </si>
-  <si>
-    <t>before</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>latest</t>
-  </si>
-  <si>
-    <t>epic</t>
+    <t>perfect</t>
   </si>
   <si>
     <t>whole</t>
@@ -875,7 +851,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q93"/>
+  <dimension ref="A1:Q83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -886,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="J1" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -944,7 +920,7 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.1409691629955947</v>
+        <v>0.1397379912663755</v>
       </c>
       <c r="C3">
         <v>128</v>
@@ -965,16 +941,16 @@
         <v>10</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="K3">
-        <v>0.1550925925925926</v>
+        <v>0.1578354002254791</v>
       </c>
       <c r="L3">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="M3">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -986,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>964</v>
+        <v>958</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -994,13 +970,13 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.07158590308370044</v>
+        <v>0.07532751091703056</v>
       </c>
       <c r="C4">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D4">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1012,13 +988,13 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="K4">
-        <v>0.09953703703703703</v>
+        <v>0.09695603156708005</v>
       </c>
       <c r="L4">
         <v>86</v>
@@ -1044,13 +1020,13 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>0.06387665198237885</v>
+        <v>0.07096069868995633</v>
       </c>
       <c r="C5">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D5">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1062,19 +1038,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="K5">
-        <v>0.06712962962962964</v>
+        <v>0.06877113866967305</v>
       </c>
       <c r="L5">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M5">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1086,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1094,13 +1070,13 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>0.05947136563876652</v>
+        <v>0.0556768558951965</v>
       </c>
       <c r="C6">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D6">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1112,13 +1088,13 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="K6">
-        <v>0.06481481481481481</v>
+        <v>0.06313416009019165</v>
       </c>
       <c r="L6">
         <v>56</v>
@@ -1144,13 +1120,13 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>0.05066079295154185</v>
+        <v>0.04803493449781659</v>
       </c>
       <c r="C7">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D7">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1162,13 +1138,13 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="K7">
-        <v>0.05787037037037037</v>
+        <v>0.05636978579481398</v>
       </c>
       <c r="L7">
         <v>50</v>
@@ -1194,13 +1170,13 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.03634361233480176</v>
+        <v>0.03930131004366812</v>
       </c>
       <c r="C8">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D8">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1212,19 +1188,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="K8">
-        <v>0.05555555555555555</v>
+        <v>0.05073280721533258</v>
       </c>
       <c r="L8">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="M8">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1236,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1244,13 +1220,13 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>0.0341409691629956</v>
+        <v>0.03493449781659388</v>
       </c>
       <c r="C9">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D9">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1262,19 +1238,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="K9">
-        <v>0.05324074074074074</v>
+        <v>0.04847801578354002</v>
       </c>
       <c r="L9">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="M9">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1286,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1294,7 +1270,7 @@
         <v>16</v>
       </c>
       <c r="B10">
-        <v>0.03193832599118943</v>
+        <v>0.03165938864628821</v>
       </c>
       <c r="C10">
         <v>29</v>
@@ -1315,16 +1291,16 @@
         <v>1</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="K10">
-        <v>0.05208333333333334</v>
+        <v>0.04284103720405862</v>
       </c>
       <c r="L10">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="M10">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1336,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1344,7 +1320,7 @@
         <v>17</v>
       </c>
       <c r="B11">
-        <v>0.03193832599118943</v>
+        <v>0.03165938864628821</v>
       </c>
       <c r="C11">
         <v>29</v>
@@ -1365,10 +1341,10 @@
         <v>11</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="K11">
-        <v>0.04050925925925926</v>
+        <v>0.03945885005636979</v>
       </c>
       <c r="L11">
         <v>35</v>
@@ -1394,7 +1370,7 @@
         <v>18</v>
       </c>
       <c r="B12">
-        <v>0.02973568281938326</v>
+        <v>0.02947598253275109</v>
       </c>
       <c r="C12">
         <v>27</v>
@@ -1415,16 +1391,16 @@
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="K12">
-        <v>0.03356481481481482</v>
+        <v>0.03156708004509583</v>
       </c>
       <c r="L12">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M12">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1436,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1444,7 +1420,7 @@
         <v>19</v>
       </c>
       <c r="B13">
-        <v>0.02753303964757709</v>
+        <v>0.02729257641921397</v>
       </c>
       <c r="C13">
         <v>25</v>
@@ -1465,16 +1441,16 @@
         <v>10</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="K13">
-        <v>0.03009259259259259</v>
+        <v>0.03043968432919955</v>
       </c>
       <c r="L13">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M13">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1486,7 +1462,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1494,13 +1470,13 @@
         <v>20</v>
       </c>
       <c r="B14">
-        <v>0.02643171806167401</v>
+        <v>0.02292576419213974</v>
       </c>
       <c r="C14">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D14">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1512,19 +1488,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="K14">
-        <v>0.01967592592592593</v>
+        <v>0.02818489289740699</v>
       </c>
       <c r="L14">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="M14">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1536,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1544,13 +1520,13 @@
         <v>21</v>
       </c>
       <c r="B15">
-        <v>0.01982378854625551</v>
+        <v>0.02074235807860262</v>
       </c>
       <c r="C15">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D15">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1562,19 +1538,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="K15">
-        <v>0.01736111111111111</v>
+        <v>0.02705749718151071</v>
       </c>
       <c r="L15">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="M15">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1586,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1594,13 +1570,13 @@
         <v>22</v>
       </c>
       <c r="B16">
-        <v>0.01762114537444934</v>
+        <v>0.01965065502183406</v>
       </c>
       <c r="C16">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D16">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1615,16 +1591,16 @@
         <v>10</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="K16">
-        <v>0.01736111111111111</v>
+        <v>0.02705749718151071</v>
       </c>
       <c r="L16">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="M16">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1636,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1644,13 +1620,13 @@
         <v>23</v>
       </c>
       <c r="B17">
-        <v>0.01651982378854626</v>
+        <v>0.0185589519650655</v>
       </c>
       <c r="C17">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D17">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1662,19 +1638,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="K17">
-        <v>0.0162037037037037</v>
+        <v>0.01803833145434047</v>
       </c>
       <c r="L17">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M17">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1686,7 +1662,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1694,13 +1670,13 @@
         <v>24</v>
       </c>
       <c r="B18">
-        <v>0.01651982378854626</v>
+        <v>0.0185589519650655</v>
       </c>
       <c r="C18">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D18">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1712,13 +1688,13 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="K18">
-        <v>0.0162037037037037</v>
+        <v>0.01578354002254791</v>
       </c>
       <c r="L18">
         <v>14</v>
@@ -1744,13 +1720,13 @@
         <v>25</v>
       </c>
       <c r="B19">
-        <v>0.01541850220264317</v>
+        <v>0.01637554585152838</v>
       </c>
       <c r="C19">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D19">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1762,13 +1738,13 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>116</v>
+        <v>2</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="K19">
-        <v>0.0150462962962963</v>
+        <v>0.01465614430665163</v>
       </c>
       <c r="L19">
         <v>13</v>
@@ -1786,7 +1762,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>48</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1794,7 +1770,7 @@
         <v>26</v>
       </c>
       <c r="B20">
-        <v>0.01541850220264317</v>
+        <v>0.01528384279475982</v>
       </c>
       <c r="C20">
         <v>14</v>
@@ -1812,19 +1788,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="K20">
-        <v>0.01388888888888889</v>
+        <v>0.0112739571589628</v>
       </c>
       <c r="L20">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M20">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1836,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>6</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1844,13 +1820,13 @@
         <v>27</v>
       </c>
       <c r="B21">
-        <v>0.01541850220264317</v>
+        <v>0.01419213973799127</v>
       </c>
       <c r="C21">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D21">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -1862,19 +1838,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="K21">
-        <v>0.01273148148148148</v>
+        <v>0.01014656144306652</v>
       </c>
       <c r="L21">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M21">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1886,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>30</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1894,13 +1870,13 @@
         <v>28</v>
       </c>
       <c r="B22">
-        <v>0.01541850220264317</v>
+        <v>0.01419213973799127</v>
       </c>
       <c r="C22">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D22">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1912,13 +1888,13 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="K22">
-        <v>0.009259259259259259</v>
+        <v>0.009019165727170236</v>
       </c>
       <c r="L22">
         <v>8</v>
@@ -1936,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>63</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1944,7 +1920,7 @@
         <v>29</v>
       </c>
       <c r="B23">
-        <v>0.01431718061674009</v>
+        <v>0.01419213973799127</v>
       </c>
       <c r="C23">
         <v>13</v>
@@ -1965,10 +1941,10 @@
         <v>3</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="K23">
-        <v>0.009259259259259259</v>
+        <v>0.009019165727170236</v>
       </c>
       <c r="L23">
         <v>8</v>
@@ -1986,7 +1962,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1994,37 +1970,37 @@
         <v>30</v>
       </c>
       <c r="B24">
-        <v>0.013215859030837</v>
+        <v>0.01310043668122271</v>
       </c>
       <c r="C24">
         <v>12</v>
       </c>
       <c r="D24">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E24">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="G24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>2774</v>
+        <v>118</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="K24">
-        <v>0.008101851851851851</v>
+        <v>0.009019165727170236</v>
       </c>
       <c r="L24">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M24">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -2036,7 +2012,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -2044,7 +2020,7 @@
         <v>31</v>
       </c>
       <c r="B25">
-        <v>0.013215859030837</v>
+        <v>0.01310043668122271</v>
       </c>
       <c r="C25">
         <v>12</v>
@@ -2062,19 +2038,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="K25">
-        <v>0.008101851851851851</v>
+        <v>0.009019165727170236</v>
       </c>
       <c r="L25">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M25">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -2086,7 +2062,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>4</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2094,13 +2070,13 @@
         <v>32</v>
       </c>
       <c r="B26">
-        <v>0.01211453744493392</v>
+        <v>0.01310043668122271</v>
       </c>
       <c r="C26">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D26">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -2112,19 +2088,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>93</v>
+        <v>1</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="K26">
-        <v>0.006944444444444444</v>
+        <v>0.007891770011273957</v>
       </c>
       <c r="L26">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M26">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -2136,7 +2112,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>2</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2144,7 +2120,7 @@
         <v>33</v>
       </c>
       <c r="B27">
-        <v>0.01211453744493392</v>
+        <v>0.01200873362445415</v>
       </c>
       <c r="C27">
         <v>11</v>
@@ -2165,10 +2141,10 @@
         <v>1</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="K27">
-        <v>0.006944444444444444</v>
+        <v>0.006764374295377677</v>
       </c>
       <c r="L27">
         <v>6</v>
@@ -2186,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>7</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2194,31 +2170,31 @@
         <v>34</v>
       </c>
       <c r="B28">
-        <v>0.01211453744493392</v>
+        <v>0.01091703056768559</v>
       </c>
       <c r="C28">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D28">
         <v>11</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>2777</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="K28">
-        <v>0.006944444444444444</v>
+        <v>0.006764374295377677</v>
       </c>
       <c r="L28">
         <v>6</v>
@@ -2236,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>9</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2244,13 +2220,13 @@
         <v>35</v>
       </c>
       <c r="B29">
-        <v>0.01211453744493392</v>
+        <v>0.01091703056768559</v>
       </c>
       <c r="C29">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D29">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -2262,13 +2238,13 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="K29">
-        <v>0.005787037037037037</v>
+        <v>0.005636978579481398</v>
       </c>
       <c r="L29">
         <v>5</v>
@@ -2294,7 +2270,7 @@
         <v>36</v>
       </c>
       <c r="B30">
-        <v>0.01101321585903084</v>
+        <v>0.01091703056768559</v>
       </c>
       <c r="C30">
         <v>10</v>
@@ -2315,10 +2291,10 @@
         <v>6</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="K30">
-        <v>0.005787037037037037</v>
+        <v>0.005636978579481398</v>
       </c>
       <c r="L30">
         <v>5</v>
@@ -2344,13 +2320,13 @@
         <v>37</v>
       </c>
       <c r="B31">
-        <v>0.009911894273127754</v>
+        <v>0.01091703056768559</v>
       </c>
       <c r="C31">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -2362,19 +2338,19 @@
         <v>0</v>
       </c>
       <c r="H31">
+        <v>12</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K31">
+        <v>0.004509582863585118</v>
+      </c>
+      <c r="L31">
         <v>4</v>
       </c>
-      <c r="J31" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="K31">
-        <v>0.005787037037037037</v>
-      </c>
-      <c r="L31">
-        <v>5</v>
-      </c>
       <c r="M31">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -2386,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2394,7 +2370,7 @@
         <v>38</v>
       </c>
       <c r="B32">
-        <v>0.009911894273127754</v>
+        <v>0.009825327510917031</v>
       </c>
       <c r="C32">
         <v>9</v>
@@ -2412,13 +2388,13 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="K32">
-        <v>0.004629629629629629</v>
+        <v>0.004509582863585118</v>
       </c>
       <c r="L32">
         <v>4</v>
@@ -2436,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2444,7 +2420,7 @@
         <v>39</v>
       </c>
       <c r="B33">
-        <v>0.00881057268722467</v>
+        <v>0.008733624454148471</v>
       </c>
       <c r="C33">
         <v>8</v>
@@ -2465,10 +2441,10 @@
         <v>4</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="K33">
-        <v>0.004629629629629629</v>
+        <v>0.004509582863585118</v>
       </c>
       <c r="L33">
         <v>4</v>
@@ -2486,7 +2462,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2494,13 +2470,13 @@
         <v>40</v>
       </c>
       <c r="B34">
-        <v>0.007709251101321586</v>
+        <v>0.008733624454148471</v>
       </c>
       <c r="C34">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D34">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -2512,19 +2488,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="K34">
-        <v>0.004629629629629629</v>
+        <v>0.003382187147688839</v>
       </c>
       <c r="L34">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M34">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N34">
         <v>0</v>
@@ -2544,13 +2520,13 @@
         <v>41</v>
       </c>
       <c r="B35">
-        <v>0.007709251101321586</v>
+        <v>0.008733624454148471</v>
       </c>
       <c r="C35">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D35">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -2562,13 +2538,13 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="K35">
-        <v>0.003472222222222222</v>
+        <v>0.003382187147688839</v>
       </c>
       <c r="L35">
         <v>3</v>
@@ -2586,7 +2562,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>3</v>
+        <v>195</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2594,13 +2570,13 @@
         <v>42</v>
       </c>
       <c r="B36">
-        <v>0.007709251101321586</v>
+        <v>0.008733624454148471</v>
       </c>
       <c r="C36">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D36">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -2615,28 +2591,28 @@
         <v>5</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>134</v>
+        <v>63</v>
       </c>
       <c r="K36">
-        <v>0.003472222222222222</v>
+        <v>0.003382187147688839</v>
       </c>
       <c r="L36">
         <v>3</v>
       </c>
       <c r="M36">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N36">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="O36">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="P36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36">
-        <v>13</v>
+        <v>958</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2644,13 +2620,13 @@
         <v>43</v>
       </c>
       <c r="B37">
-        <v>0.006607929515418502</v>
+        <v>0.008733624454148471</v>
       </c>
       <c r="C37">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D37">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -2662,13 +2638,13 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="K37">
-        <v>0.003472222222222222</v>
+        <v>0.003382187147688839</v>
       </c>
       <c r="L37">
         <v>3</v>
@@ -2686,7 +2662,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>0</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2694,13 +2670,13 @@
         <v>44</v>
       </c>
       <c r="B38">
-        <v>0.005506607929515419</v>
+        <v>0.007641921397379912</v>
       </c>
       <c r="C38">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D38">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -2712,19 +2688,19 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="K38">
-        <v>0.003472222222222222</v>
+        <v>0.002254791431792559</v>
       </c>
       <c r="L38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N38">
         <v>0</v>
@@ -2736,7 +2712,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>58</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2744,49 +2720,49 @@
         <v>45</v>
       </c>
       <c r="B39">
-        <v>0.005506607929515419</v>
+        <v>0.007641921397379912</v>
       </c>
       <c r="C39">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D39">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E39">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="F39">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="G39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39">
-        <v>234</v>
+        <v>4</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>137</v>
+        <v>75</v>
       </c>
       <c r="K39">
-        <v>0.003472222222222222</v>
+        <v>0.002254791431792559</v>
       </c>
       <c r="L39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M39">
         <v>3</v>
       </c>
       <c r="N39">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="O39">
-        <v>1</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="P39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q39">
-        <v>709</v>
+        <v>730</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2794,13 +2770,13 @@
         <v>46</v>
       </c>
       <c r="B40">
-        <v>0.005506607929515419</v>
+        <v>0.006550218340611353</v>
       </c>
       <c r="C40">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D40">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -2812,19 +2788,19 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="K40">
-        <v>0.003472222222222222</v>
+        <v>0.002254791431792559</v>
       </c>
       <c r="L40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N40">
         <v>0</v>
@@ -2836,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2844,13 +2820,13 @@
         <v>47</v>
       </c>
       <c r="B41">
-        <v>0.005506607929515419</v>
+        <v>0.006550218340611353</v>
       </c>
       <c r="C41">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D41">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -2862,19 +2838,19 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="K41">
-        <v>0.003472222222222222</v>
+        <v>0.002254791431792559</v>
       </c>
       <c r="L41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N41">
         <v>0</v>
@@ -2886,7 +2862,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2894,7 +2870,7 @@
         <v>48</v>
       </c>
       <c r="B42">
-        <v>0.004405286343612335</v>
+        <v>0.004366812227074236</v>
       </c>
       <c r="C42">
         <v>4</v>
@@ -2912,13 +2888,13 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="K42">
-        <v>0.002314814814814815</v>
+        <v>0.002254791431792559</v>
       </c>
       <c r="L42">
         <v>2</v>
@@ -2936,7 +2912,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2944,31 +2920,31 @@
         <v>49</v>
       </c>
       <c r="B43">
-        <v>0.003303964757709251</v>
+        <v>0.004366812227074236</v>
       </c>
       <c r="C43">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D43">
         <v>4</v>
       </c>
       <c r="E43">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="F43">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="G43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>958</v>
+        <v>7</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="K43">
-        <v>0.002314814814814815</v>
+        <v>0.002254791431792559</v>
       </c>
       <c r="L43">
         <v>2</v>
@@ -2986,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>14</v>
+        <v>71</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2994,13 +2970,13 @@
         <v>50</v>
       </c>
       <c r="B44">
-        <v>0.003303964757709251</v>
+        <v>0.004366812227074236</v>
       </c>
       <c r="C44">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -3012,31 +2988,31 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>68</v>
+        <v>125</v>
       </c>
       <c r="K44">
-        <v>0.002314814814814815</v>
+        <v>0.002254791431792559</v>
       </c>
       <c r="L44">
         <v>2</v>
       </c>
       <c r="M44">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N44">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="O44">
-        <v>0.6699999999999999</v>
+        <v>1</v>
       </c>
       <c r="P44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>778</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -3044,13 +3020,13 @@
         <v>51</v>
       </c>
       <c r="B45">
-        <v>0.003303964757709251</v>
+        <v>0.004366812227074236</v>
       </c>
       <c r="C45">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -3062,13 +3038,13 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="K45">
-        <v>0.002314814814814815</v>
+        <v>0.002254791431792559</v>
       </c>
       <c r="L45">
         <v>2</v>
@@ -3086,7 +3062,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>196</v>
+        <v>383</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -3094,7 +3070,7 @@
         <v>52</v>
       </c>
       <c r="B46">
-        <v>0.003303964757709251</v>
+        <v>0.003275109170305677</v>
       </c>
       <c r="C46">
         <v>3</v>
@@ -3112,31 +3088,31 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>11</v>
+        <v>447</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>88</v>
+        <v>127</v>
       </c>
       <c r="K46">
-        <v>0.002314814814814815</v>
+        <v>0.002254791431792559</v>
       </c>
       <c r="L46">
         <v>2</v>
       </c>
       <c r="M46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N46">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="O46">
-        <v>0.6699999999999999</v>
+        <v>1</v>
       </c>
       <c r="P46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46">
-        <v>1144</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -3144,13 +3120,13 @@
         <v>53</v>
       </c>
       <c r="B47">
-        <v>0.002202643171806168</v>
+        <v>0.003275109170305677</v>
       </c>
       <c r="C47">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -3162,13 +3138,13 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>3926</v>
+        <v>296</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="K47">
-        <v>0.002314814814814815</v>
+        <v>0.002254791431792559</v>
       </c>
       <c r="L47">
         <v>2</v>
@@ -3186,7 +3162,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -3194,13 +3170,13 @@
         <v>54</v>
       </c>
       <c r="B48">
-        <v>0.002202643171806168</v>
+        <v>0.003275109170305677</v>
       </c>
       <c r="C48">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -3212,31 +3188,31 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>448</v>
+        <v>25</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>30</v>
+        <v>129</v>
       </c>
       <c r="K48">
-        <v>0.002314814814814815</v>
+        <v>0.002254791431792559</v>
       </c>
       <c r="L48">
         <v>2</v>
       </c>
       <c r="M48">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="N48">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="O48">
-        <v>0.14</v>
+        <v>1</v>
       </c>
       <c r="P48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q48">
-        <v>2774</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -3244,31 +3220,31 @@
         <v>55</v>
       </c>
       <c r="B49">
-        <v>0.002202643171806168</v>
+        <v>0.002183406113537118</v>
       </c>
       <c r="C49">
         <v>2</v>
       </c>
       <c r="D49">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="G49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49">
-        <v>297</v>
+        <v>237</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="K49">
-        <v>0.002314814814814815</v>
+        <v>0.002254791431792559</v>
       </c>
       <c r="L49">
         <v>2</v>
@@ -3286,7 +3262,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -3294,7 +3270,7 @@
         <v>56</v>
       </c>
       <c r="B50">
-        <v>0.002202643171806168</v>
+        <v>0.002183406113537118</v>
       </c>
       <c r="C50">
         <v>2</v>
@@ -3312,31 +3288,31 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>90</v>
+        <v>131</v>
       </c>
       <c r="K50">
-        <v>0.001157407407407407</v>
+        <v>0.00112739571589628</v>
       </c>
       <c r="L50">
         <v>1</v>
       </c>
       <c r="M50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N50">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O50">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50">
-        <v>614</v>
+        <v>148</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -3344,7 +3320,7 @@
         <v>57</v>
       </c>
       <c r="B51">
-        <v>0.002202643171806168</v>
+        <v>0.002183406113537118</v>
       </c>
       <c r="C51">
         <v>2</v>
@@ -3362,13 +3338,13 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="K51">
-        <v>0.001157407407407407</v>
+        <v>0.00112739571589628</v>
       </c>
       <c r="L51">
         <v>1</v>
@@ -3394,7 +3370,7 @@
         <v>58</v>
       </c>
       <c r="B52">
-        <v>0.002202643171806168</v>
+        <v>0.002183406113537118</v>
       </c>
       <c r="C52">
         <v>2</v>
@@ -3412,13 +3388,13 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="K52">
-        <v>0.001157407407407407</v>
+        <v>0.00112739571589628</v>
       </c>
       <c r="L52">
         <v>1</v>
@@ -3436,7 +3412,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>0</v>
+        <v>368</v>
       </c>
     </row>
     <row r="53" spans="1:17">
@@ -3444,31 +3420,31 @@
         <v>59</v>
       </c>
       <c r="B53">
-        <v>0.002202643171806168</v>
+        <v>0.001091703056768559</v>
       </c>
       <c r="C53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D53">
         <v>2</v>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53">
-        <v>197</v>
+        <v>3926</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="K53">
-        <v>0.001157407407407407</v>
+        <v>0.00112739571589628</v>
       </c>
       <c r="L53">
         <v>1</v>
@@ -3486,7 +3462,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>201</v>
+        <v>877</v>
       </c>
     </row>
     <row r="54" spans="1:17">
@@ -3494,49 +3470,49 @@
         <v>60</v>
       </c>
       <c r="B54">
-        <v>0.002202643171806168</v>
+        <v>0.001091703056768559</v>
       </c>
       <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54" t="b">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>6</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K54">
+        <v>0.00112739571589628</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
+      <c r="M54">
         <v>2</v>
       </c>
-      <c r="D54">
-        <v>2</v>
-      </c>
-      <c r="E54">
-        <v>1</v>
-      </c>
-      <c r="F54">
-        <v>0</v>
-      </c>
-      <c r="G54" t="b">
-        <v>0</v>
-      </c>
-      <c r="H54">
-        <v>106</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="K54">
-        <v>0.001157407407407407</v>
-      </c>
-      <c r="L54">
-        <v>1</v>
-      </c>
-      <c r="M54">
-        <v>1</v>
-      </c>
       <c r="N54">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O54">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="P54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q54">
-        <v>25</v>
+        <v>606</v>
       </c>
     </row>
     <row r="55" spans="1:17">
@@ -3544,49 +3520,49 @@
         <v>61</v>
       </c>
       <c r="B55">
-        <v>0.002202643171806168</v>
+        <v>0.001091703056768559</v>
       </c>
       <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55" t="b">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>370</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K55">
+        <v>0.00112739571589628</v>
+      </c>
+      <c r="L55">
+        <v>1</v>
+      </c>
+      <c r="M55">
         <v>2</v>
       </c>
-      <c r="D55">
-        <v>2</v>
-      </c>
-      <c r="E55">
-        <v>1</v>
-      </c>
-      <c r="F55">
-        <v>0</v>
-      </c>
-      <c r="G55" t="b">
-        <v>0</v>
-      </c>
-      <c r="H55">
-        <v>18</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="K55">
-        <v>0.001157407407407407</v>
-      </c>
-      <c r="L55">
-        <v>1</v>
-      </c>
-      <c r="M55">
-        <v>1</v>
-      </c>
       <c r="N55">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O55">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="P55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q55">
-        <v>384</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="56" spans="1:17">
@@ -3594,13 +3570,13 @@
         <v>62</v>
       </c>
       <c r="B56">
-        <v>0.002202643171806168</v>
+        <v>0.001091703056768559</v>
       </c>
       <c r="C56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -3612,13 +3588,13 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="K56">
-        <v>0.001157407407407407</v>
+        <v>0.00112739571589628</v>
       </c>
       <c r="L56">
         <v>1</v>
@@ -3636,7 +3612,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>340</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:17">
@@ -3644,49 +3620,49 @@
         <v>63</v>
       </c>
       <c r="B57">
-        <v>0.002202643171806168</v>
+        <v>0.001091703056768559</v>
       </c>
       <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>4</v>
+      </c>
+      <c r="E57">
+        <v>0.25</v>
+      </c>
+      <c r="F57">
+        <v>0.75</v>
+      </c>
+      <c r="G57" t="b">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>958</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K57">
+        <v>0.00112739571589628</v>
+      </c>
+      <c r="L57">
+        <v>1</v>
+      </c>
+      <c r="M57">
         <v>2</v>
       </c>
-      <c r="D57">
-        <v>2</v>
-      </c>
-      <c r="E57">
-        <v>1</v>
-      </c>
-      <c r="F57">
-        <v>0</v>
-      </c>
-      <c r="G57" t="b">
-        <v>0</v>
-      </c>
-      <c r="H57">
-        <v>11</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="K57">
-        <v>0.001157407407407407</v>
-      </c>
-      <c r="L57">
-        <v>1</v>
-      </c>
-      <c r="M57">
-        <v>1</v>
-      </c>
       <c r="N57">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O57">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="P57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q57">
-        <v>18</v>
+        <v>3926</v>
       </c>
     </row>
     <row r="58" spans="1:17">
@@ -3694,13 +3670,13 @@
         <v>64</v>
       </c>
       <c r="B58">
-        <v>0.002202643171806168</v>
+        <v>0.001091703056768559</v>
       </c>
       <c r="C58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -3712,13 +3688,13 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>13</v>
+        <v>780</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="K58">
-        <v>0.001157407407407407</v>
+        <v>0.00112739571589628</v>
       </c>
       <c r="L58">
         <v>1</v>
@@ -3736,7 +3712,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" spans="1:17">
@@ -3744,31 +3720,31 @@
         <v>65</v>
       </c>
       <c r="B59">
-        <v>0.001101321585903084</v>
+        <v>0.001091703056768559</v>
       </c>
       <c r="C59">
         <v>1</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59">
-        <v>6</v>
+        <v>606</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="K59">
-        <v>0.001157407407407407</v>
+        <v>0.00112739571589628</v>
       </c>
       <c r="L59">
         <v>1</v>
@@ -3786,7 +3762,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>549</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60" spans="1:17">
@@ -3794,7 +3770,7 @@
         <v>66</v>
       </c>
       <c r="B60">
-        <v>0.001101321585903084</v>
+        <v>0.001091703056768559</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -3812,31 +3788,31 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>370</v>
+        <v>265</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="K60">
-        <v>0.001157407407407407</v>
+        <v>0.00112739571589628</v>
       </c>
       <c r="L60">
         <v>1</v>
       </c>
       <c r="M60">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="N60">
-        <v>0.5</v>
+        <v>0.91</v>
       </c>
       <c r="O60">
-        <v>0.5</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P60" t="b">
         <v>1</v>
       </c>
       <c r="Q60">
-        <v>606</v>
+        <v>2777</v>
       </c>
     </row>
     <row r="61" spans="1:17">
@@ -3844,7 +3820,7 @@
         <v>67</v>
       </c>
       <c r="B61">
-        <v>0.001101321585903084</v>
+        <v>0.001091703056768559</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -3862,31 +3838,31 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>114</v>
+        <v>4</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="K61">
-        <v>0.001157407407407407</v>
+        <v>0.00112739571589628</v>
       </c>
       <c r="L61">
         <v>1</v>
       </c>
       <c r="M61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N61">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O61">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q61">
-        <v>1734</v>
+        <v>711</v>
       </c>
     </row>
     <row r="62" spans="1:17">
@@ -3894,31 +3870,31 @@
         <v>68</v>
       </c>
       <c r="B62">
-        <v>0.001101321585903084</v>
+        <v>0.001091703056768559</v>
       </c>
       <c r="C62">
         <v>1</v>
       </c>
       <c r="D62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E62">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="F62">
-        <v>0.6699999999999999</v>
+        <v>0</v>
       </c>
       <c r="G62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62">
-        <v>778</v>
+        <v>136</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="K62">
-        <v>0.001157407407407407</v>
+        <v>0.00112739571589628</v>
       </c>
       <c r="L62">
         <v>1</v>
@@ -3936,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63" spans="1:17">
@@ -3944,31 +3920,31 @@
         <v>69</v>
       </c>
       <c r="B63">
-        <v>0.001101321585903084</v>
+        <v>0.001091703056768559</v>
       </c>
       <c r="C63">
         <v>1</v>
       </c>
       <c r="D63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E63">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F63">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63">
-        <v>606</v>
+        <v>39</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="K63">
-        <v>0.001157407407407407</v>
+        <v>0.00112739571589628</v>
       </c>
       <c r="L63">
         <v>1</v>
@@ -3994,7 +3970,7 @@
         <v>70</v>
       </c>
       <c r="B64">
-        <v>0.001101321585903084</v>
+        <v>0.001091703056768559</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -4012,31 +3988,31 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>265</v>
+        <v>53</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>45</v>
+        <v>141</v>
       </c>
       <c r="K64">
-        <v>0.001157407407407407</v>
+        <v>0.00112739571589628</v>
       </c>
       <c r="L64">
         <v>1</v>
       </c>
       <c r="M64">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N64">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="O64">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="P64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q64">
-        <v>234</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" spans="1:17">
@@ -4044,7 +4020,7 @@
         <v>71</v>
       </c>
       <c r="B65">
-        <v>0.001101321585903084</v>
+        <v>0.001091703056768559</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -4062,13 +4038,13 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="K65">
-        <v>0.001157407407407407</v>
+        <v>0.00112739571589628</v>
       </c>
       <c r="L65">
         <v>1</v>
@@ -4086,7 +4062,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>114</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66" spans="1:17">
@@ -4094,7 +4070,7 @@
         <v>72</v>
       </c>
       <c r="B66">
-        <v>0.001101321585903084</v>
+        <v>0.001091703056768559</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -4112,31 +4088,31 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>28</v>
+        <v>296</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>49</v>
+        <v>143</v>
       </c>
       <c r="K66">
-        <v>0.001157407407407407</v>
+        <v>0.00112739571589628</v>
       </c>
       <c r="L66">
         <v>1</v>
       </c>
       <c r="M66">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N66">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="O66">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="P66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q66">
-        <v>958</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67" spans="1:17">
@@ -4144,7 +4120,7 @@
         <v>73</v>
       </c>
       <c r="B67">
-        <v>0.001101321585903084</v>
+        <v>0.001091703056768559</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -4162,31 +4138,31 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>157</v>
+        <v>55</v>
       </c>
       <c r="K67">
-        <v>0.001157407407407407</v>
+        <v>0.00112739571589628</v>
       </c>
       <c r="L67">
         <v>1</v>
       </c>
       <c r="M67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N67">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="O67">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="P67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q67">
-        <v>90</v>
+        <v>237</v>
       </c>
     </row>
     <row r="68" spans="1:17">
@@ -4194,7 +4170,7 @@
         <v>74</v>
       </c>
       <c r="B68">
-        <v>0.001101321585903084</v>
+        <v>0.001091703056768559</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -4212,13 +4188,13 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="K68">
-        <v>0.001157407407407407</v>
+        <v>0.00112739571589628</v>
       </c>
       <c r="L68">
         <v>1</v>
@@ -4236,7 +4212,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>94</v>
+        <v>277</v>
       </c>
     </row>
     <row r="69" spans="1:17">
@@ -4244,31 +4220,31 @@
         <v>75</v>
       </c>
       <c r="B69">
-        <v>0.001101321585903084</v>
+        <v>0.001091703056768559</v>
       </c>
       <c r="C69">
         <v>1</v>
       </c>
       <c r="D69">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E69">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69">
-        <v>955</v>
+        <v>730</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="K69">
-        <v>0.001157407407407407</v>
+        <v>0.00112739571589628</v>
       </c>
       <c r="L69">
         <v>1</v>
@@ -4286,7 +4262,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>148</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:17">
@@ -4294,7 +4270,7 @@
         <v>76</v>
       </c>
       <c r="B70">
-        <v>0.001101321585903084</v>
+        <v>0.001091703056768559</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -4312,13 +4288,13 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>296</v>
+        <v>105</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="K70">
-        <v>0.001157407407407407</v>
+        <v>0.00112739571589628</v>
       </c>
       <c r="L70">
         <v>1</v>
@@ -4336,7 +4312,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:17">
@@ -4344,31 +4320,31 @@
         <v>77</v>
       </c>
       <c r="B71">
-        <v>0.001101321585903084</v>
+        <v>0.001091703056768559</v>
       </c>
       <c r="C71">
         <v>1</v>
       </c>
       <c r="D71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E71">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F71">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H71">
-        <v>1734</v>
+        <v>100</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="K71">
-        <v>0.001157407407407407</v>
+        <v>0.00112739571589628</v>
       </c>
       <c r="L71">
         <v>1</v>
@@ -4386,7 +4362,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>204</v>
+        <v>287</v>
       </c>
     </row>
     <row r="72" spans="1:17">
@@ -4394,7 +4370,7 @@
         <v>78</v>
       </c>
       <c r="B72">
-        <v>0.001101321585903084</v>
+        <v>0.001091703056768559</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -4412,13 +4388,13 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>102</v>
+        <v>1142</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="K72">
-        <v>0.001157407407407407</v>
+        <v>0.00112739571589628</v>
       </c>
       <c r="L72">
         <v>1</v>
@@ -4436,7 +4412,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" spans="1:17">
@@ -4444,7 +4420,7 @@
         <v>79</v>
       </c>
       <c r="B73">
-        <v>0.001101321585903084</v>
+        <v>0.001091703056768559</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -4462,13 +4438,13 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <v>25</v>
+        <v>1146</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="K73">
-        <v>0.001157407407407407</v>
+        <v>0.00112739571589628</v>
       </c>
       <c r="L73">
         <v>1</v>
@@ -4486,7 +4462,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74" spans="1:17">
@@ -4494,7 +4470,7 @@
         <v>80</v>
       </c>
       <c r="B74">
-        <v>0.001101321585903084</v>
+        <v>0.001091703056768559</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -4512,13 +4488,13 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="K74">
-        <v>0.001157407407407407</v>
+        <v>0.00112739571589628</v>
       </c>
       <c r="L74">
         <v>1</v>
@@ -4536,7 +4512,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>47</v>
+        <v>58</v>
       </c>
     </row>
     <row r="75" spans="1:17">
@@ -4544,7 +4520,7 @@
         <v>81</v>
       </c>
       <c r="B75">
-        <v>0.001101321585903084</v>
+        <v>0.001091703056768559</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -4562,13 +4538,13 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="K75">
-        <v>0.001157407407407407</v>
+        <v>0.00112739571589628</v>
       </c>
       <c r="L75">
         <v>1</v>
@@ -4586,7 +4562,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76" spans="1:17">
@@ -4594,31 +4570,31 @@
         <v>82</v>
       </c>
       <c r="B76">
-        <v>0.001101321585903084</v>
+        <v>0.001091703056768559</v>
       </c>
       <c r="C76">
         <v>1</v>
       </c>
       <c r="D76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E76">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F76">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H76">
-        <v>213</v>
+        <v>1044</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="K76">
-        <v>0.001157407407407407</v>
+        <v>0.00112739571589628</v>
       </c>
       <c r="L76">
         <v>1</v>
@@ -4636,7 +4612,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>1</v>
+        <v>60</v>
       </c>
     </row>
     <row r="77" spans="1:17">
@@ -4644,7 +4620,7 @@
         <v>83</v>
       </c>
       <c r="B77">
-        <v>0.001101321585903084</v>
+        <v>0.001091703056768559</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -4662,13 +4638,13 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>168</v>
+        <v>11</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="K77">
-        <v>0.001157407407407407</v>
+        <v>0.00112739571589628</v>
       </c>
       <c r="L77">
         <v>1</v>
@@ -4686,7 +4662,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="78" spans="1:17">
@@ -4694,7 +4670,7 @@
         <v>84</v>
       </c>
       <c r="B78">
-        <v>0.001101321585903084</v>
+        <v>0.001091703056768559</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -4712,397 +4688,161 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>29</v>
+        <v>18</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="K78">
+        <v>0.00112739571589628</v>
+      </c>
+      <c r="L78">
+        <v>1</v>
+      </c>
+      <c r="M78">
+        <v>1</v>
+      </c>
+      <c r="N78">
+        <v>0</v>
+      </c>
+      <c r="O78">
+        <v>1</v>
+      </c>
+      <c r="P78" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q78">
+        <v>282</v>
       </c>
     </row>
     <row r="79" spans="1:17">
-      <c r="A79" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B79">
-        <v>0.001101321585903084</v>
-      </c>
-      <c r="C79">
-        <v>1</v>
-      </c>
-      <c r="D79">
-        <v>1</v>
-      </c>
-      <c r="E79">
-        <v>1</v>
-      </c>
-      <c r="F79">
-        <v>0</v>
-      </c>
-      <c r="G79" t="b">
-        <v>0</v>
-      </c>
-      <c r="H79">
-        <v>0</v>
+      <c r="J79" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K79">
+        <v>0.00112739571589628</v>
+      </c>
+      <c r="L79">
+        <v>1</v>
+      </c>
+      <c r="M79">
+        <v>1</v>
+      </c>
+      <c r="N79">
+        <v>0</v>
+      </c>
+      <c r="O79">
+        <v>1</v>
+      </c>
+      <c r="P79" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q79">
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:17">
-      <c r="A80" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B80">
-        <v>0.001101321585903084</v>
-      </c>
-      <c r="C80">
-        <v>1</v>
-      </c>
-      <c r="D80">
-        <v>1</v>
-      </c>
-      <c r="E80">
-        <v>1</v>
-      </c>
-      <c r="F80">
-        <v>0</v>
-      </c>
-      <c r="G80" t="b">
-        <v>0</v>
-      </c>
-      <c r="H80">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
-      <c r="A81" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B81">
-        <v>0.001101321585903084</v>
-      </c>
-      <c r="C81">
-        <v>1</v>
-      </c>
-      <c r="D81">
-        <v>1</v>
-      </c>
-      <c r="E81">
-        <v>1</v>
-      </c>
-      <c r="F81">
-        <v>0</v>
-      </c>
-      <c r="G81" t="b">
-        <v>0</v>
-      </c>
-      <c r="H81">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
-      <c r="A82" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B82">
-        <v>0.001101321585903084</v>
-      </c>
-      <c r="C82">
-        <v>1</v>
-      </c>
-      <c r="D82">
-        <v>3</v>
-      </c>
-      <c r="E82">
-        <v>0.33</v>
-      </c>
-      <c r="F82">
-        <v>0.6699999999999999</v>
-      </c>
-      <c r="G82" t="b">
-        <v>1</v>
-      </c>
-      <c r="H82">
-        <v>1144</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
-      <c r="A83" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B83">
-        <v>0.001101321585903084</v>
-      </c>
-      <c r="C83">
-        <v>1</v>
-      </c>
-      <c r="D83">
-        <v>1</v>
-      </c>
-      <c r="E83">
-        <v>1</v>
-      </c>
-      <c r="F83">
-        <v>0</v>
-      </c>
-      <c r="G83" t="b">
-        <v>0</v>
-      </c>
-      <c r="H83">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
-      <c r="A84" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B84">
-        <v>0.001101321585903084</v>
-      </c>
-      <c r="C84">
-        <v>1</v>
-      </c>
-      <c r="D84">
-        <v>2</v>
-      </c>
-      <c r="E84">
-        <v>0.5</v>
-      </c>
-      <c r="F84">
-        <v>0.5</v>
-      </c>
-      <c r="G84" t="b">
-        <v>1</v>
-      </c>
-      <c r="H84">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
-      <c r="A85" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B85">
-        <v>0.001101321585903084</v>
-      </c>
-      <c r="C85">
-        <v>1</v>
-      </c>
-      <c r="D85">
-        <v>1</v>
-      </c>
-      <c r="E85">
-        <v>1</v>
-      </c>
-      <c r="F85">
-        <v>0</v>
-      </c>
-      <c r="G85" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
-      <c r="A86" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B86">
-        <v>0.001101321585903084</v>
-      </c>
-      <c r="C86">
-        <v>1</v>
-      </c>
-      <c r="D86">
-        <v>1</v>
-      </c>
-      <c r="E86">
-        <v>1</v>
-      </c>
-      <c r="F86">
-        <v>0</v>
-      </c>
-      <c r="G86" t="b">
-        <v>0</v>
-      </c>
-      <c r="H86">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
-      <c r="A87" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B87">
-        <v>0.001101321585903084</v>
-      </c>
-      <c r="C87">
-        <v>1</v>
-      </c>
-      <c r="D87">
-        <v>1</v>
-      </c>
-      <c r="E87">
-        <v>1</v>
-      </c>
-      <c r="F87">
-        <v>0</v>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
-      </c>
-      <c r="H87">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
-      <c r="A88" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B88">
-        <v>0.001101321585903084</v>
-      </c>
-      <c r="C88">
-        <v>1</v>
-      </c>
-      <c r="D88">
-        <v>1</v>
-      </c>
-      <c r="E88">
-        <v>1</v>
-      </c>
-      <c r="F88">
-        <v>0</v>
-      </c>
-      <c r="G88" t="b">
-        <v>0</v>
-      </c>
-      <c r="H88">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
-      <c r="A89" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B89">
-        <v>0.001101321585903084</v>
-      </c>
-      <c r="C89">
-        <v>1</v>
-      </c>
-      <c r="D89">
-        <v>1</v>
-      </c>
-      <c r="E89">
-        <v>1</v>
-      </c>
-      <c r="F89">
-        <v>0</v>
-      </c>
-      <c r="G89" t="b">
-        <v>0</v>
-      </c>
-      <c r="H89">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
-      <c r="A90" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B90">
-        <v>0.001101321585903084</v>
-      </c>
-      <c r="C90">
-        <v>1</v>
-      </c>
-      <c r="D90">
-        <v>1</v>
-      </c>
-      <c r="E90">
-        <v>1</v>
-      </c>
-      <c r="F90">
-        <v>0</v>
-      </c>
-      <c r="G90" t="b">
-        <v>0</v>
-      </c>
-      <c r="H90">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
-      <c r="A91" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B91">
-        <v>0.001101321585903084</v>
-      </c>
-      <c r="C91">
-        <v>1</v>
-      </c>
-      <c r="D91">
-        <v>1</v>
-      </c>
-      <c r="E91">
-        <v>1</v>
-      </c>
-      <c r="F91">
-        <v>0</v>
-      </c>
-      <c r="G91" t="b">
-        <v>0</v>
-      </c>
-      <c r="H91">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
-      <c r="A92" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B92">
-        <v>0.001101321585903084</v>
-      </c>
-      <c r="C92">
-        <v>1</v>
-      </c>
-      <c r="D92">
-        <v>1</v>
-      </c>
-      <c r="E92">
-        <v>1</v>
-      </c>
-      <c r="F92">
-        <v>0</v>
-      </c>
-      <c r="G92" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
-      <c r="A93" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B93">
-        <v>0.001101321585903084</v>
-      </c>
-      <c r="C93">
-        <v>1</v>
-      </c>
-      <c r="D93">
-        <v>1</v>
-      </c>
-      <c r="E93">
-        <v>1</v>
-      </c>
-      <c r="F93">
-        <v>0</v>
-      </c>
-      <c r="G93" t="b">
-        <v>0</v>
-      </c>
-      <c r="H93">
-        <v>18</v>
+      <c r="J80" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="K80">
+        <v>0.00112739571589628</v>
+      </c>
+      <c r="L80">
+        <v>1</v>
+      </c>
+      <c r="M80">
+        <v>1</v>
+      </c>
+      <c r="N80">
+        <v>0</v>
+      </c>
+      <c r="O80">
+        <v>1</v>
+      </c>
+      <c r="P80" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q80">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="81" spans="10:17">
+      <c r="J81" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="K81">
+        <v>0.00112739571589628</v>
+      </c>
+      <c r="L81">
+        <v>1</v>
+      </c>
+      <c r="M81">
+        <v>1</v>
+      </c>
+      <c r="N81">
+        <v>0</v>
+      </c>
+      <c r="O81">
+        <v>1</v>
+      </c>
+      <c r="P81" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q81">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="10:17">
+      <c r="J82" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K82">
+        <v>0.00112739571589628</v>
+      </c>
+      <c r="L82">
+        <v>1</v>
+      </c>
+      <c r="M82">
+        <v>1</v>
+      </c>
+      <c r="N82">
+        <v>0</v>
+      </c>
+      <c r="O82">
+        <v>1</v>
+      </c>
+      <c r="P82" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q82">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="10:17">
+      <c r="J83" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="K83">
+        <v>0.00112739571589628</v>
+      </c>
+      <c r="L83">
+        <v>1</v>
+      </c>
+      <c r="M83">
+        <v>1</v>
+      </c>
+      <c r="N83">
+        <v>0</v>
+      </c>
+      <c r="O83">
+        <v>1</v>
+      </c>
+      <c r="P83" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q83">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
